--- a/Text/仕様書岸.xlsx
+++ b/Text/仕様書岸.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Monja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Monja\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="戦闘画面" sheetId="1" r:id="rId1"/>
-    <sheet name="所持アイテム一覧画面" sheetId="3" r:id="rId2"/>
-    <sheet name="戦闘" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="所持アイテム一覧画面" sheetId="3" r:id="rId3"/>
+    <sheet name="ステージ移行画面" sheetId="4" r:id="rId4"/>
+    <sheet name="ボス戦闘＆画面" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId6"/>
+    <sheet name="戦闘" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3711,7 +3715,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -3723,11 +3740,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>

--- a/Text/仕様書岸.xlsx
+++ b/Text/仕様書岸.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="戦闘画面" sheetId="1" r:id="rId1"/>
@@ -2740,6 +2740,1923 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562099" y="647700"/>
+          <a:ext cx="14582775" cy="5162550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="1704976"/>
+          <a:ext cx="13201650" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="1552575"/>
+          <a:ext cx="1428750" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="2771775"/>
+          <a:ext cx="419100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>💀</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="減算 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="2905125"/>
+          <a:ext cx="1057275" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="2743200"/>
+          <a:ext cx="419100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="2714625"/>
+          <a:ext cx="419100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="3267075"/>
+          <a:ext cx="895350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="3276600"/>
+          <a:ext cx="895350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="減算 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="2933700"/>
+          <a:ext cx="1057275" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972049" y="3314700"/>
+          <a:ext cx="1190625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボスステージ１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="2733675"/>
+          <a:ext cx="419100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>💀</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="減算 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038975" y="2933700"/>
+          <a:ext cx="1057275" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="2752725"/>
+          <a:ext cx="419100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="2752725"/>
+          <a:ext cx="419100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="3295650"/>
+          <a:ext cx="895350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="3286125"/>
+          <a:ext cx="895350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ４</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="減算 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="2933700"/>
+          <a:ext cx="1057275" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="3333750"/>
+          <a:ext cx="1162050" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボスステージ２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563600" y="2714625"/>
+          <a:ext cx="419100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>💀</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="減算 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11153775" y="2933700"/>
+          <a:ext cx="1057275" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="楕円 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12172950" y="2724150"/>
+          <a:ext cx="419100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10829925" y="2743200"/>
+          <a:ext cx="419100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="3333750"/>
+          <a:ext cx="895350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="3324225"/>
+          <a:ext cx="895350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ６</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="減算 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="2914650"/>
+          <a:ext cx="1057275" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13249276" y="3314700"/>
+          <a:ext cx="1409700" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ラスボスステージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形吹き出し 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="4448175"/>
+          <a:ext cx="4914900" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21608"/>
+            <a:gd name="adj2" fmla="val -103440"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵との戦闘に勝ってショップを抜けるとステージ移行画面にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ（点）の上を主人公の頭の絵が移動する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボスステージは分かりやすい見た目にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>３ステージ刻みで背景などを変更したい（別のシーンにする？）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="1714501"/>
+          <a:ext cx="57150" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="1724026"/>
+          <a:ext cx="57150" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3744,14 +5661,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Text/仕様書岸.xlsx
+++ b/Text/仕様書岸.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="戦闘画面" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="所持アイテム一覧画面" sheetId="3" r:id="rId3"/>
     <sheet name="ステージ移行画面" sheetId="4" r:id="rId4"/>
     <sheet name="ボス戦闘＆画面" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId6"/>
-    <sheet name="戦闘" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
+    <sheet name="戦闘" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4650,10 +4651,692 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13382625" y="4591049"/>
+          <a:ext cx="2400300" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34842"/>
+            <a:gd name="adj2" fmla="val -39254"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BGM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を切り替えるかは要検討</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>変えるなら少し落ち着いた</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BGM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この画面から戦闘の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BGM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は違和感を少なくつなぎたい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="133350"/>
+          <a:ext cx="10829925" cy="4914900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="371475"/>
+          <a:ext cx="8886825" cy="4181475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46265</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>234043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>498022</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7530194" y="1458686"/>
+          <a:ext cx="2492828" cy="3050721"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>ボス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>98024</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469624" y="1171575"/>
+          <a:ext cx="2264175" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="819150"/>
+          <a:ext cx="4352925" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>敵の体力数値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="809625"/>
+          <a:ext cx="1647825" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 処理 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105150" y="419100"/>
+          <a:ext cx="2838450" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ボスの名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>440871</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形吹き出し 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10646228" y="0"/>
+          <a:ext cx="4920343" cy="2217964"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70612"/>
+            <a:gd name="adj2" fmla="val 20868"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>背景はボスステージ毎に専用のものを用意</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>BGM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>も用意</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>戦闘開始時カットイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>出現演出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>が欲しい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>戦闘勝利後撃破演出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>爆破？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ボスアイテムを実装できたらしたい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5661,8 +6344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5677,6 +6360,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5686,7 +6385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5701,7 +6400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Text/仕様書岸.xlsx
+++ b/Text/仕様書岸.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="戦闘画面" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="所持アイテム一覧画面" sheetId="3" r:id="rId3"/>
     <sheet name="ステージ移行画面" sheetId="4" r:id="rId4"/>
     <sheet name="ボス戦闘＆画面" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="aaaa" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
     <sheet name="戦闘" sheetId="2" r:id="rId8"/>
   </sheets>
@@ -6360,7 +6360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -6376,7 +6376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/Text/仕様書岸.xlsx
+++ b/Text/仕様書岸.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="戦闘画面" sheetId="1" r:id="rId1"/>
@@ -2742,1697 +2742,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1562099" y="647700"/>
-          <a:ext cx="14582775" cy="5162550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2038350" y="1704976"/>
-          <a:ext cx="13201650" cy="2743200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="1552575"/>
-          <a:ext cx="1428750" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="楕円 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5372100" y="2771775"/>
-          <a:ext cx="419100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>💀</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="減算 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2771775" y="2905125"/>
-          <a:ext cx="1057275" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMinus">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="楕円 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3867150" y="2743200"/>
-          <a:ext cx="419100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="楕円 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2314575" y="2714625"/>
-          <a:ext cx="419100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2038350" y="3267075"/>
-          <a:ext cx="895350" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ１</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3571875" y="3276600"/>
-          <a:ext cx="895350" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ２</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="減算 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4324350" y="2933700"/>
-          <a:ext cx="1057275" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMinus">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4972049" y="3314700"/>
-          <a:ext cx="1190625" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ボスステージ１</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="楕円 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9486900" y="2733675"/>
-          <a:ext cx="419100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>💀</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="減算 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7038975" y="2933700"/>
-          <a:ext cx="1057275" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMinus">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="楕円 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8067675" y="2752725"/>
-          <a:ext cx="419100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="楕円 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6686550" y="2752725"/>
-          <a:ext cx="419100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6457950" y="3295650"/>
-          <a:ext cx="895350" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ３</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781925" y="3286125"/>
-          <a:ext cx="895350" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ４</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="減算 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8458200" y="2933700"/>
-          <a:ext cx="1057275" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMinus">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9039225" y="3333750"/>
-          <a:ext cx="1162050" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ボスステージ２</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13563600" y="2714625"/>
-          <a:ext cx="419100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>💀</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="減算 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11153775" y="2933700"/>
-          <a:ext cx="1057275" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMinus">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="楕円 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12172950" y="2724150"/>
-          <a:ext cx="419100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="楕円 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10829925" y="2743200"/>
-          <a:ext cx="419100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10591800" y="3333750"/>
-          <a:ext cx="895350" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ５</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11887200" y="3324225"/>
-          <a:ext cx="895350" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ６</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="減算 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12496800" y="2914650"/>
-          <a:ext cx="1057275" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMinus">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13249276" y="3314700"/>
-          <a:ext cx="1409700" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ラスボスステージ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -4491,158 +2800,10 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>敵との戦闘に勝ってショップを抜けるとステージ移行画面にする</a:t>
+            <a:t>３ステージ刻みで背景などを変更したい（別のシーンにする？）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ（点）の上を主人公の頭の絵が移動する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ボスステージは分かりやすい見た目にする</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>３ステージ刻みで背景などを変更したい（別のシーンにする？）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6267450" y="1714501"/>
-          <a:ext cx="57150" cy="2743200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10420350" y="1724026"/>
-          <a:ext cx="57150" cy="2743200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -6344,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6376,7 +4537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
